--- a/Data/Master_Data/Fabian_Schär.xlsx
+++ b/Data/Master_Data/Fabian_Schär.xlsx
@@ -135,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,22 +616,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43323</v>
+        <v>43688</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -670,40 +670,49 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI2">
         <v>-1</v>
@@ -715,48 +724,48 @@
         <v>-150</v>
       </c>
       <c r="AL2">
-        <v>-100</v>
+        <v>-140</v>
       </c>
       <c r="AM2">
-        <v>-160</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43330</v>
+        <v>43694</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -768,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -780,63 +789,72 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AL3">
-        <v>-50</v>
+        <v>10</v>
       </c>
       <c r="AM3">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43338</v>
+        <v>43702</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -845,13 +863,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -860,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -881,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -890,31 +908,31 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>25.4</v>
+        <v>33.2</v>
       </c>
       <c r="V4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X4">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -926,54 +944,54 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
         <v>-1</v>
       </c>
       <c r="AK4">
-        <v>-140</v>
+        <v>-80</v>
       </c>
       <c r="AL4">
+        <v>-60</v>
+      </c>
+      <c r="AM4">
         <v>-210</v>
-      </c>
-      <c r="AM4">
-        <v>-270</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43344</v>
+        <v>43708</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -982,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -997,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1006,81 +1024,90 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>42.8</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="AC5">
+        <v>0.3</v>
+      </c>
+      <c r="AD5">
+        <v>0.3</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>-230</v>
+        <v>-50</v>
       </c>
       <c r="AL5">
-        <v>-220</v>
+        <v>-90</v>
       </c>
       <c r="AM5">
-        <v>-330</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="1">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43358</v>
+        <v>43722</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1095,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1107,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1119,78 +1146,87 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK6">
-        <v>-150</v>
+        <v>-240</v>
       </c>
       <c r="AL6">
-        <v>-140</v>
+        <v>-270</v>
       </c>
       <c r="AM6">
-        <v>-220</v>
+        <v>-320</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="1">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43365</v>
+        <v>43729</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1199,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1217,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1232,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1250,31 +1286,40 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="AC7">
+        <v>0.1</v>
+      </c>
+      <c r="AD7">
+        <v>0.1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI7">
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>-30</v>
+        <v>80</v>
       </c>
       <c r="AL7">
-        <v>-40</v>
+        <v>-70</v>
       </c>
       <c r="AM7">
         <v>-50</v>
@@ -1282,25 +1327,25 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43372</v>
+        <v>43737</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1309,13 +1354,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1327,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1339,78 +1384,87 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="AC8">
+        <v>0.1</v>
+      </c>
+      <c r="AD8">
+        <v>0.1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI8">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>-70</v>
+        <v>-110</v>
       </c>
       <c r="AL8">
-        <v>-50</v>
+        <v>-110</v>
       </c>
       <c r="AM8">
-        <v>-120</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43379</v>
+        <v>43744</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1419,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1437,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1452,69 +1506,78 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="AC9">
+        <v>0.1</v>
+      </c>
+      <c r="AD9">
+        <v>0.1</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <v>-1</v>
       </c>
       <c r="AK9">
-        <v>-120</v>
+        <v>-210</v>
       </c>
       <c r="AL9">
-        <v>-220</v>
+        <v>-300</v>
       </c>
       <c r="AM9">
-        <v>-190</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43393</v>
+        <v>43757</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1526,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1547,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1559,63 +1622,72 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI10">
         <v>-1</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK10">
-        <v>80</v>
+        <v>-120</v>
       </c>
       <c r="AL10">
-        <v>-70</v>
+        <v>-200</v>
       </c>
       <c r="AM10">
-        <v>-50</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>43400</v>
+        <v>43765</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1684,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1708,24 +1780,24 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK11">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="AL11">
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="AM11">
-        <v>-120</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>43407</v>
+        <v>43771</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1734,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1746,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1767,55 +1839,46 @@
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>3</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>10</v>
-      </c>
-      <c r="V12">
-        <v>0.6</v>
-      </c>
-      <c r="W12">
-        <v>4</v>
-      </c>
-      <c r="X12">
-        <v>1.5</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>18</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AF12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -1827,39 +1890,39 @@
         <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>-50</v>
+        <v>60</v>
       </c>
       <c r="AL12">
-        <v>-90</v>
+        <v>40</v>
       </c>
       <c r="AM12">
-        <v>-170</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
-        <v>43414</v>
+        <v>43778</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1868,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1886,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1898,19 +1961,19 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>33.2</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -1922,25 +1985,16 @@
         <v>1</v>
       </c>
       <c r="AB13">
-        <v>2</v>
-      </c>
-      <c r="AC13">
-        <v>0.1</v>
-      </c>
-      <c r="AD13">
-        <v>0.1</v>
-      </c>
-      <c r="AE13">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="AF13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13">
         <v>1</v>
@@ -1960,40 +2014,40 @@
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2">
-        <v>43430</v>
+        <v>43794</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2005,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2017,81 +2071,72 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>4</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="AF14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG14">
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK14">
+        <v>80</v>
+      </c>
+      <c r="AL14">
+        <v>70</v>
+      </c>
+      <c r="AM14">
         <v>-10</v>
-      </c>
-      <c r="AL14">
-        <v>-90</v>
-      </c>
-      <c r="AM14">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>43435</v>
+        <v>43799</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2106,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2124,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2136,43 +2181,34 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15">
         <v>1</v>
       </c>
       <c r="AB15">
-        <v>19</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -2181,57 +2217,57 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK15">
-        <v>60</v>
+        <v>-250</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="AM15">
-        <v>-170</v>
+        <v>-340</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>43439</v>
+        <v>43804</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2243,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2255,72 +2291,63 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>56.6</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>8</v>
-      </c>
-      <c r="AC16">
-        <v>0.1</v>
-      </c>
-      <c r="AD16">
-        <v>0.1</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG16">
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ16">
         <v>0</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="AL16">
+        <v>-130</v>
+      </c>
+      <c r="AM16">
         <v>-60</v>
-      </c>
-      <c r="AM16">
-        <v>-180</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" s="1">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2">
-        <v>43443</v>
+        <v>43807</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2329,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2341,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2362,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2374,63 +2401,72 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17">
         <v>1</v>
       </c>
       <c r="AB17">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK17">
+        <v>50</v>
+      </c>
+      <c r="AL17">
+        <v>-20</v>
+      </c>
+      <c r="AM17">
         <v>-100</v>
-      </c>
-      <c r="AL17">
-        <v>-200</v>
-      </c>
-      <c r="AM17">
-        <v>-220</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2">
-        <v>43449</v>
+        <v>43813</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -2445,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -2472,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2484,72 +2520,72 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>28</v>
+        <v>14.6</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="W18">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC18">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>110</v>
+        <v>-10</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="AM18">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
-        <v>43456</v>
+        <v>43820</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -2564,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2573,13 +2609,13 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2594,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2606,99 +2642,99 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>17.6</v>
+        <v>14.6</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>10.3</v>
       </c>
       <c r="W19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK19">
-        <v>110</v>
+        <v>-30</v>
       </c>
       <c r="AL19">
-        <v>-40</v>
+        <v>-150</v>
       </c>
       <c r="AM19">
-        <v>-20</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2">
-        <v>43460</v>
+        <v>43825</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2710,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2722,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>4</v>
@@ -2748,58 +2784,67 @@
       <c r="AB20">
         <v>12</v>
       </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
       <c r="AF20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG20">
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI20">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AJ20">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK20">
-        <v>-240</v>
+        <v>-120</v>
       </c>
       <c r="AL20">
-        <v>-270</v>
+        <v>-220</v>
       </c>
       <c r="AM20">
-        <v>-320</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
-        <v>43463</v>
+        <v>43827</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -2808,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2820,84 +2865,84 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>17.6</v>
+        <v>60.4</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>12.3</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z21">
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF21">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ21">
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>70</v>
+        <v>-150</v>
       </c>
       <c r="AL21">
-        <v>-80</v>
+        <v>-180</v>
       </c>
       <c r="AM21">
-        <v>-30</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
-        <v>43467</v>
+        <v>43831</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -2906,28 +2951,28 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2939,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2951,22 +2996,22 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="V22">
-        <v>30.3</v>
+        <v>0.2</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X22">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="Y22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2975,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="AB22">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2984,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -2996,27 +3041,27 @@
         <v>1</v>
       </c>
       <c r="AI22">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AJ22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK22">
-        <v>-210</v>
+        <v>-70</v>
       </c>
       <c r="AL22">
-        <v>-300</v>
+        <v>-50</v>
       </c>
       <c r="AM22">
-        <v>-280</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>43477</v>
+        <v>43841</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3088,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3106,57 +3151,57 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
         <v>-1</v>
       </c>
       <c r="AK23">
-        <v>-120</v>
+        <v>-130</v>
       </c>
       <c r="AL23">
-        <v>-200</v>
+        <v>-140</v>
       </c>
       <c r="AM23">
-        <v>-230</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2">
-        <v>43484</v>
+        <v>43848</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3168,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3177,90 +3222,81 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>77.8</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>5</v>
-      </c>
-      <c r="AC24">
-        <v>0.7</v>
-      </c>
-      <c r="AD24">
-        <v>0.7</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AK24">
-        <v>90</v>
+        <v>-140</v>
       </c>
       <c r="AL24">
-        <v>-60</v>
+        <v>-210</v>
       </c>
       <c r="AM24">
-        <v>-40</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2">
-        <v>43494</v>
+        <v>43851</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3269,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -3287,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3299,81 +3335,81 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>23</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="X25">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25">
         <v>2</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
+        <v>8</v>
+      </c>
+      <c r="AC25">
+        <v>0.1</v>
+      </c>
+      <c r="AD25">
+        <v>0.1</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>13</v>
       </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>3</v>
-      </c>
       <c r="AG25">
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>-240</v>
+        <v>-60</v>
       </c>
       <c r="AM25">
-        <v>-340</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2">
-        <v>43498</v>
+        <v>43862</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3394,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3406,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3418,102 +3454,93 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>46.2</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>17</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK26">
-        <v>-80</v>
+        <v>70</v>
       </c>
       <c r="AL26">
-        <v>-60</v>
+        <v>-10</v>
       </c>
       <c r="AM26">
-        <v>-210</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2">
-        <v>43507</v>
+        <v>43877</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3525,43 +3552,43 @@
         <v>0</v>
       </c>
       <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>2.2</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0.2</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
         <v>4</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>33.2</v>
-      </c>
-      <c r="V27">
-        <v>10.8</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>4.5</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3570,39 +3597,39 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AG27">
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AJ27">
         <v>-1</v>
       </c>
       <c r="AK27">
+        <v>-80</v>
+      </c>
+      <c r="AL27">
         <v>-130</v>
       </c>
-      <c r="AL27">
-        <v>-140</v>
-      </c>
       <c r="AM27">
-        <v>-210</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2">
-        <v>43519</v>
+        <v>43883</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3617,22 +3644,22 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3644,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3656,99 +3683,99 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>15.6</v>
+        <v>22.4</v>
       </c>
       <c r="V28">
-        <v>12.4</v>
+        <v>0.7</v>
       </c>
       <c r="W28">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="X28">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AC28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>140</v>
+        <v>-30</v>
       </c>
       <c r="AL28">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="AM28">
-        <v>10</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
-        <v>43522</v>
+        <v>43890</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3763,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3772,58 +3799,49 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>1</v>
       </c>
       <c r="AB29">
-        <v>4</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF29">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK29">
         <v>-90</v>
@@ -3837,25 +3855,25 @@
     </row>
     <row r="30" spans="1:39">
       <c r="A30" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2">
-        <v>43526</v>
+        <v>43897</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3864,13 +3882,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3885,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -3894,43 +3912,34 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>19</v>
-      </c>
-      <c r="AC30">
-        <v>0.1</v>
-      </c>
-      <c r="AD30">
-        <v>0.1</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -3939,1072 +3948,19 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="AL30">
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="AM30">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39">
-      <c r="A31" s="1">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2">
-        <v>43533</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>90</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>12.2</v>
-      </c>
-      <c r="V31">
-        <v>13.9</v>
-      </c>
-      <c r="W31">
-        <v>3</v>
-      </c>
-      <c r="X31">
-        <v>2.9</v>
-      </c>
-      <c r="Y31">
-        <v>2</v>
-      </c>
-      <c r="Z31">
-        <v>3</v>
-      </c>
-      <c r="AA31">
-        <v>1</v>
-      </c>
-      <c r="AB31">
-        <v>8</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0.1</v>
-      </c>
-      <c r="AF31">
-        <v>11</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>1</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>-150</v>
-      </c>
-      <c r="AL31">
-        <v>-180</v>
-      </c>
-      <c r="AM31">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39">
-      <c r="A32" s="1">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2">
-        <v>43540</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
-      <c r="Z32">
-        <v>2</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>2</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>1</v>
-      </c>
-      <c r="AK32">
-        <v>80</v>
-      </c>
-      <c r="AL32">
-        <v>50</v>
-      </c>
-      <c r="AM32">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39">
-      <c r="A33" s="1">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C33">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>2</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>1</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>-2</v>
-      </c>
-      <c r="AJ33">
-        <v>-1</v>
-      </c>
-      <c r="AK33">
-        <v>-80</v>
-      </c>
-      <c r="AL33">
-        <v>-130</v>
-      </c>
-      <c r="AM33">
-        <v>-160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
-      <c r="A34" s="1">
-        <v>25</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43561</v>
-      </c>
-      <c r="C34">
-        <v>33</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>90</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <v>18.8</v>
-      </c>
-      <c r="V34">
-        <v>5.1</v>
-      </c>
-      <c r="W34">
-        <v>4</v>
-      </c>
-      <c r="X34">
-        <v>2.8</v>
-      </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>1</v>
-      </c>
-      <c r="AB34">
-        <v>7</v>
-      </c>
-      <c r="AC34">
-        <v>0.1</v>
-      </c>
-      <c r="AD34">
-        <v>0.1</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>12</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>2</v>
-      </c>
-      <c r="AI34">
-        <v>-1</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>-30</v>
-      </c>
-      <c r="AL34">
-        <v>-150</v>
-      </c>
-      <c r="AM34">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39">
-      <c r="A35" s="1">
-        <v>26</v>
-      </c>
-      <c r="B35" s="2">
-        <v>43567</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>90</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>6</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>30.8</v>
-      </c>
-      <c r="V35">
-        <v>16.7</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>4.8</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>11</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>23</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>5</v>
-      </c>
-      <c r="AI35">
-        <v>1</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>-110</v>
-      </c>
-      <c r="AL35">
-        <v>-110</v>
-      </c>
-      <c r="AM35">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
-      <c r="A36" s="1">
-        <v>27</v>
-      </c>
-      <c r="B36" s="2">
-        <v>43575</v>
-      </c>
-      <c r="C36">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>69</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>3</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <v>13.8</v>
-      </c>
-      <c r="V36">
-        <v>0.1</v>
-      </c>
-      <c r="W36">
-        <v>7</v>
-      </c>
-      <c r="X36">
-        <v>2.1</v>
-      </c>
-      <c r="Y36">
-        <v>1</v>
-      </c>
-      <c r="Z36">
-        <v>3</v>
-      </c>
-      <c r="AA36">
-        <v>1</v>
-      </c>
-      <c r="AB36">
-        <v>16</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>11</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>2</v>
-      </c>
-      <c r="AI36">
-        <v>2</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>50</v>
-      </c>
-      <c r="AL36">
-        <v>-20</v>
-      </c>
-      <c r="AM36">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39">
-      <c r="A37" s="1">
-        <v>28</v>
-      </c>
-      <c r="B37" s="2">
-        <v>43582</v>
-      </c>
-      <c r="C37">
-        <v>36</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>90</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>3</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <v>28.6</v>
-      </c>
-      <c r="V37">
-        <v>13.6</v>
-      </c>
-      <c r="W37">
-        <v>6</v>
-      </c>
-      <c r="X37">
-        <v>4.8</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="Z37">
-        <v>1</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>3</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>13</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>2</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <v>1</v>
-      </c>
-      <c r="AK37">
-        <v>50</v>
-      </c>
-      <c r="AL37">
-        <v>-60</v>
-      </c>
-      <c r="AM37">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39">
-      <c r="A38" s="1">
-        <v>29</v>
-      </c>
-      <c r="B38" s="2">
-        <v>43589</v>
-      </c>
-      <c r="C38">
-        <v>37</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>90</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>3</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="U38">
-        <v>8</v>
-      </c>
-      <c r="V38">
-        <v>0.2</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0.8</v>
-      </c>
-      <c r="Y38">
-        <v>3</v>
-      </c>
-      <c r="Z38">
-        <v>2</v>
-      </c>
-      <c r="AA38">
-        <v>1</v>
-      </c>
-      <c r="AB38">
-        <v>12</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>7</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>-1</v>
-      </c>
-      <c r="AJ38">
-        <v>-2</v>
-      </c>
-      <c r="AK38">
-        <v>-260</v>
-      </c>
-      <c r="AL38">
-        <v>-290</v>
-      </c>
-      <c r="AM38">
-        <v>-350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
-      <c r="A39" s="1">
-        <v>30</v>
-      </c>
-      <c r="B39" s="2">
-        <v>43597</v>
-      </c>
-      <c r="C39">
-        <v>38</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>90</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>3</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>55.6</v>
-      </c>
-      <c r="V39">
-        <v>0.4</v>
-      </c>
-      <c r="W39">
-        <v>18</v>
-      </c>
-      <c r="X39">
-        <v>7.4</v>
-      </c>
-      <c r="Y39">
-        <v>4</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>9</v>
-      </c>
-      <c r="AC39">
-        <v>0.1</v>
-      </c>
-      <c r="AD39">
-        <v>0.1</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>37</v>
-      </c>
-      <c r="AG39">
-        <v>3</v>
-      </c>
-      <c r="AH39">
-        <v>15</v>
-      </c>
-      <c r="AI39">
-        <v>4</v>
-      </c>
-      <c r="AJ39">
-        <v>2</v>
-      </c>
-      <c r="AK39">
-        <v>80</v>
-      </c>
-      <c r="AL39">
-        <v>-30</v>
-      </c>
-      <c r="AM39">
-        <v>-20</v>
+        <v>-120</v>
       </c>
     </row>
   </sheetData>
